--- a/biology/Botanique/Arrosage/Arrosage.xlsx
+++ b/biology/Botanique/Arrosage/Arrosage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrosage est une opération de jardinage consistant à apporter les quantités d'eau nécessaires à la bonne croissance des végétaux.
 On utilise le terme « arrosage » principalement pour les cultures en pot. En pleine terre, on utilise plutôt le terme d'« irrigation » nécessitant l'utilisation de techniques plus précises.
@@ -512,7 +524,9 @@
           <t>Arrosage et type de sols</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les facteurs à maitriser, le débit et la dose de l'arrosage :
 en sol sableux, une petite dose, fréquente, apportée rapidement, afin de compenser l'effet drainant de ce type de sol,
@@ -545,9 +559,11 @@
           <t>Fréquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La consommation en eau des plantes par évapotranspiration (ETP) est évidemment très variable selon les espèces et les saisons. Certains sites Internet indiquent le niveau d'ETP quotidien[1]. Le but de l'arrosage est de compenser cette perte quotidienne. En sol sableux (très drainant), on pourra par exemple apporter 12 mm d'eau tous les 3 jours (ou 16 mm tous les 4 jours). En sol argileux, 24 mm tous les 6 jours (ou 28 mm par semaine).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation en eau des plantes par évapotranspiration (ETP) est évidemment très variable selon les espèces et les saisons. Certains sites Internet indiquent le niveau d'ETP quotidien. Le but de l'arrosage est de compenser cette perte quotidienne. En sol sableux (très drainant), on pourra par exemple apporter 12 mm d'eau tous les 3 jours (ou 16 mm tous les 4 jours). En sol argileux, 24 mm tous les 6 jours (ou 28 mm par semaine).
 Généralement, on n'arrose une plante que lorsque le substrat est presque sec (en veillant à ne jamais laisser complètement sécher). En hiver, cela peut arriver au bout de plusieurs semaines. Au printemps, au bout de plusieurs jours. En plein été, à l'ombre, au bout d'un jour, et enfin, en plein été, au grand soleil ou un jour très venteux, au bout de quelques heures.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Optimisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trop ou trop peu, trop souvent et peu, les risques d'un arrosage à contretemps ne sont pas à négliger. La nature du sol et de sa réserve utile en eau sont des éléments importants à connaitre pour optimiser ses arrosages.
 Les plantes souffrent plus d'un excès d’eau que d'un manque. Elles peuvent résister à une longue période sèche et « renaitre » à la faveur d’une pluie. En revanche, quand les racines baignent en permanence, elles pourrissent et la plante est condamnée.
@@ -614,7 +632,9 @@
           <t>Quand arroser ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est recommandé d'arroser plutôt le matin car les arrosages du soir facilitent la circulation des limaces la nuit. Si on n'arrose pas la nuit ou au petit matin, on veillera à purger les tuyaux d'arrosage avant de les utiliser afin de ne pas brûler les plantes avec une eau trop chaude par stagnation longue dans un tuyau exposé au plein soleil.
 Par ailleurs, afin de limiter l'évaporation de l'eau d'arrosage, on n'arrose jamais aux heures les plus chaudes de la journée.
@@ -646,7 +666,9 @@
           <t>Arrosage par gravitation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Procédé consistant à amener l'eau en se servant de la dénivellation du terrain
 </t>
